--- a/Documenti/Marco Catteneo/MRESim/logs/Discretization/Topo/Analisi metriche.xlsx
+++ b/Documenti/Marco Catteneo/MRESim/logs/Discretization/Topo/Analisi metriche.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tesi\Documenti\Marco Catteneo\MRESim\logs\Discretization\Topo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82977A17-3036-4EEE-B491-F42673F80ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEFB8EB-2C00-4E21-91C7-1BC7BA798EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
     <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="B norm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
   <si>
     <t>E1</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>Dev. Std</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -153,6 +157,20 @@
               <a:rPr lang="en-GB"/>
               <a:t>Media, min e max</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>G.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> topologico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -678,6 +696,15 @@
               <a:rPr lang="en-GB" baseline="0"/>
               <a:t> e std. dev</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>G. topologico</a:t>
+            </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
@@ -1118,6 +1145,15 @@
               <a:t>Media e max</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>G. topologico</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -1504,6 +1540,15 @@
               <a:t>Media e std. dev</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>G. topologico</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -1705,6 +1750,848 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BAD-4337-8CE3-F86D0D300432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="520392464"/>
+        <c:axId val="520389840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="520392464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520389840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="520389840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520392464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Media e max</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>G. topologico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B norm'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'B norm'!$I$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6915380289256544E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5844624125874125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4146985273687137E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.544608081791626E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7661168315043125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3216347956505439E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9863-46D8-BF38-C3E4CC905B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B norm'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'B norm'!$I$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.38339502908514012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32596153846153847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19096045197740114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16212268743914313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2078168044077135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17038095238095238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9863-46D8-BF38-C3E4CC905B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="516029736"/>
+        <c:axId val="516030720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516029736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516030720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516030720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516029736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Media e std. dev</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>G. topologico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B norm'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'B norm'!$I$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B norm'!$I$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6915380289256544E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5844624125874125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4146985273687137E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.544608081791626E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7661168315043125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3216347956505439E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7723-40B0-A665-8F9C3D3EA295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B norm'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dev. Std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'B norm'!$I$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B norm'!$I$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1331732046676422E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9436710833889012E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2350761892854897E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2049177525489504E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5087504991605867E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1331668558603783E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7723-40B0-A665-8F9C3D3EA295}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2064,6 +2951,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4076,6 +5043,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4083,13 +6056,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4119,13 +6092,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4160,13 +6133,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4201,8 +6174,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4214,6 +6187,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E849CCA-F118-4DC6-8E29-19E3554858E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363747CC-0D49-47D4-9F58-E6159CEA9D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4495,8 +6549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6471,8 +8525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E0095-9BD0-4F85-997D-B3432DD92A45}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8441,4 +10495,2022 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2B506E-B650-453C-97E7-7C42426F6F61}">
+  <dimension ref="A1:V128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>2</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>5</v>
+      </c>
+      <c r="V1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2900</v>
+      </c>
+      <c r="B2">
+        <v>2712</v>
+      </c>
+      <c r="C2">
+        <v>1352</v>
+      </c>
+      <c r="D2">
+        <v>1998</v>
+      </c>
+      <c r="E2">
+        <v>6035</v>
+      </c>
+      <c r="F2">
+        <v>5367</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(A:A)/((Q2-1)*(Q2-2)*2)</f>
+        <v>5.6915380289256544E-2</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(B:B)/((R2-1)*(R2-2)*2)</f>
+        <v>8.5844624125874125E-2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(C:C)/((S2-1)*(S2-2)*2)</f>
+        <v>5.4146985273687137E-2</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>3.544608081791626E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3.7661168315043125E-2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2.3216347956505439E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>COUNT(A:A)</f>
+        <v>63</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:V2" si="1">COUNT(B:B)</f>
+        <v>66</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1976</v>
+      </c>
+      <c r="B3">
+        <v>2280</v>
+      </c>
+      <c r="C3">
+        <v>1222</v>
+      </c>
+      <c r="D3">
+        <v>1741</v>
+      </c>
+      <c r="E3">
+        <v>5140</v>
+      </c>
+      <c r="F3">
+        <v>2807</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f>MAX(A:A)/((Q2-1)*(Q2-2)*2)</f>
+        <v>0.38339502908514012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:N3" si="2">MAX(B:B)/((R2-1)*(R2-2)*2)</f>
+        <v>0.32596153846153847</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>0.19096045197740114</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.16212268743914313</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="2"/>
+        <v>0.2078168044077135</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.17038095238095238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1560</v>
+      </c>
+      <c r="B4">
+        <v>1943</v>
+      </c>
+      <c r="C4">
+        <v>1220</v>
+      </c>
+      <c r="D4">
+        <v>1231</v>
+      </c>
+      <c r="E4">
+        <v>5029</v>
+      </c>
+      <c r="F4">
+        <v>2598</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f>MIN(A:A)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:N4" si="3">MIN(B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1416</v>
+      </c>
+      <c r="B5">
+        <v>1599</v>
+      </c>
+      <c r="C5">
+        <v>1137</v>
+      </c>
+      <c r="D5">
+        <v>1218</v>
+      </c>
+      <c r="E5">
+        <v>4743</v>
+      </c>
+      <c r="F5">
+        <v>2019</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f>_xlfn.STDEV.P(A:A)/((Q2-1)*(Q2-2)*2)</f>
+        <v>7.1331732046676422E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:N5" si="4">_xlfn.STDEV.P(B:B)/((R2-1)*(R2-2)*2)</f>
+        <v>6.9436710833889012E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>5.2350761892854897E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>3.2049177525489504E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>4.5087504991605867E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>2.1331668558603783E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1143</v>
+      </c>
+      <c r="B6">
+        <v>1534</v>
+      </c>
+      <c r="C6">
+        <v>964</v>
+      </c>
+      <c r="D6">
+        <v>1077</v>
+      </c>
+      <c r="E6">
+        <v>4496</v>
+      </c>
+      <c r="F6">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1142</v>
+      </c>
+      <c r="B7">
+        <v>1406</v>
+      </c>
+      <c r="C7">
+        <v>955</v>
+      </c>
+      <c r="D7">
+        <v>1051</v>
+      </c>
+      <c r="E7">
+        <v>3965</v>
+      </c>
+      <c r="F7">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1106</v>
+      </c>
+      <c r="B8">
+        <v>1360</v>
+      </c>
+      <c r="C8">
+        <v>937</v>
+      </c>
+      <c r="D8">
+        <v>987</v>
+      </c>
+      <c r="E8">
+        <v>3094</v>
+      </c>
+      <c r="F8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1104</v>
+      </c>
+      <c r="B9">
+        <v>1334</v>
+      </c>
+      <c r="C9">
+        <v>935</v>
+      </c>
+      <c r="D9">
+        <v>952</v>
+      </c>
+      <c r="E9">
+        <v>2899</v>
+      </c>
+      <c r="F9">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>966</v>
+      </c>
+      <c r="B10">
+        <v>1312</v>
+      </c>
+      <c r="C10">
+        <v>928</v>
+      </c>
+      <c r="D10">
+        <v>891</v>
+      </c>
+      <c r="E10">
+        <v>2878</v>
+      </c>
+      <c r="F10">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>931</v>
+      </c>
+      <c r="B11">
+        <v>1278</v>
+      </c>
+      <c r="C11">
+        <v>891</v>
+      </c>
+      <c r="D11">
+        <v>891</v>
+      </c>
+      <c r="E11">
+        <v>2822</v>
+      </c>
+      <c r="F11">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>803</v>
+      </c>
+      <c r="B12">
+        <v>1270</v>
+      </c>
+      <c r="C12">
+        <v>801</v>
+      </c>
+      <c r="D12">
+        <v>814</v>
+      </c>
+      <c r="E12">
+        <v>2802</v>
+      </c>
+      <c r="F12">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>758</v>
+      </c>
+      <c r="B13">
+        <v>1251</v>
+      </c>
+      <c r="C13">
+        <v>797</v>
+      </c>
+      <c r="D13">
+        <v>792</v>
+      </c>
+      <c r="E13">
+        <v>2746</v>
+      </c>
+      <c r="F13">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>740</v>
+      </c>
+      <c r="B14">
+        <v>1244</v>
+      </c>
+      <c r="C14">
+        <v>694</v>
+      </c>
+      <c r="D14">
+        <v>789</v>
+      </c>
+      <c r="E14">
+        <v>2742</v>
+      </c>
+      <c r="F14">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>692</v>
+      </c>
+      <c r="B15">
+        <v>1239</v>
+      </c>
+      <c r="C15">
+        <v>654</v>
+      </c>
+      <c r="D15">
+        <v>767</v>
+      </c>
+      <c r="E15">
+        <v>2677</v>
+      </c>
+      <c r="F15">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>655</v>
+      </c>
+      <c r="B16">
+        <v>1221</v>
+      </c>
+      <c r="C16">
+        <v>613</v>
+      </c>
+      <c r="D16">
+        <v>745</v>
+      </c>
+      <c r="E16">
+        <v>2674</v>
+      </c>
+      <c r="F16">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>643</v>
+      </c>
+      <c r="B17">
+        <v>1139</v>
+      </c>
+      <c r="C17">
+        <v>586</v>
+      </c>
+      <c r="D17">
+        <v>740</v>
+      </c>
+      <c r="E17">
+        <v>2630</v>
+      </c>
+      <c r="F17">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>620</v>
+      </c>
+      <c r="B18">
+        <v>1132</v>
+      </c>
+      <c r="C18">
+        <v>568</v>
+      </c>
+      <c r="D18">
+        <v>733</v>
+      </c>
+      <c r="E18">
+        <v>2547</v>
+      </c>
+      <c r="F18">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>618</v>
+      </c>
+      <c r="B19">
+        <v>1049</v>
+      </c>
+      <c r="C19">
+        <v>524</v>
+      </c>
+      <c r="D19">
+        <v>721</v>
+      </c>
+      <c r="E19">
+        <v>2471</v>
+      </c>
+      <c r="F19">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>599</v>
+      </c>
+      <c r="B20">
+        <v>1018</v>
+      </c>
+      <c r="C20">
+        <v>514</v>
+      </c>
+      <c r="D20">
+        <v>719</v>
+      </c>
+      <c r="E20">
+        <v>2437</v>
+      </c>
+      <c r="F20">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>536</v>
+      </c>
+      <c r="B21">
+        <v>1015</v>
+      </c>
+      <c r="C21">
+        <v>415</v>
+      </c>
+      <c r="D21">
+        <v>713</v>
+      </c>
+      <c r="E21">
+        <v>2399</v>
+      </c>
+      <c r="F21">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <v>973</v>
+      </c>
+      <c r="C22">
+        <v>405</v>
+      </c>
+      <c r="D22">
+        <v>707</v>
+      </c>
+      <c r="E22">
+        <v>2388</v>
+      </c>
+      <c r="F22">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>476</v>
+      </c>
+      <c r="B23">
+        <v>931</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <v>695</v>
+      </c>
+      <c r="E23">
+        <v>2360</v>
+      </c>
+      <c r="F23">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>471</v>
+      </c>
+      <c r="B24">
+        <v>922</v>
+      </c>
+      <c r="C24">
+        <v>391</v>
+      </c>
+      <c r="D24">
+        <v>661</v>
+      </c>
+      <c r="E24">
+        <v>2316</v>
+      </c>
+      <c r="F24">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>449</v>
+      </c>
+      <c r="B25">
+        <v>887</v>
+      </c>
+      <c r="C25">
+        <v>378</v>
+      </c>
+      <c r="D25">
+        <v>656</v>
+      </c>
+      <c r="E25">
+        <v>2258</v>
+      </c>
+      <c r="F25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>429</v>
+      </c>
+      <c r="B26">
+        <v>875</v>
+      </c>
+      <c r="C26">
+        <v>377</v>
+      </c>
+      <c r="D26">
+        <v>654</v>
+      </c>
+      <c r="E26">
+        <v>2248</v>
+      </c>
+      <c r="F26">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>299</v>
+      </c>
+      <c r="B27">
+        <v>855</v>
+      </c>
+      <c r="C27">
+        <v>358</v>
+      </c>
+      <c r="D27">
+        <v>589</v>
+      </c>
+      <c r="E27">
+        <v>2213</v>
+      </c>
+      <c r="F27">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>294</v>
+      </c>
+      <c r="B28">
+        <v>847</v>
+      </c>
+      <c r="C28">
+        <v>357</v>
+      </c>
+      <c r="D28">
+        <v>575</v>
+      </c>
+      <c r="E28">
+        <v>2190</v>
+      </c>
+      <c r="F28">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>281</v>
+      </c>
+      <c r="B29">
+        <v>833</v>
+      </c>
+      <c r="C29">
+        <v>347</v>
+      </c>
+      <c r="D29">
+        <v>514</v>
+      </c>
+      <c r="E29">
+        <v>1941</v>
+      </c>
+      <c r="F29">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>818</v>
+      </c>
+      <c r="C30">
+        <v>337</v>
+      </c>
+      <c r="D30">
+        <v>505</v>
+      </c>
+      <c r="E30">
+        <v>1911</v>
+      </c>
+      <c r="F30">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>207</v>
+      </c>
+      <c r="B31">
+        <v>734</v>
+      </c>
+      <c r="C31">
+        <v>330</v>
+      </c>
+      <c r="D31">
+        <v>488</v>
+      </c>
+      <c r="E31">
+        <v>1884</v>
+      </c>
+      <c r="F31">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>197</v>
+      </c>
+      <c r="B32">
+        <v>719</v>
+      </c>
+      <c r="C32">
+        <v>329</v>
+      </c>
+      <c r="D32">
+        <v>421</v>
+      </c>
+      <c r="E32">
+        <v>1809</v>
+      </c>
+      <c r="F32">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>195</v>
+      </c>
+      <c r="B33">
+        <v>665</v>
+      </c>
+      <c r="C33">
+        <v>281</v>
+      </c>
+      <c r="D33">
+        <v>397</v>
+      </c>
+      <c r="E33">
+        <v>1805</v>
+      </c>
+      <c r="F33">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>194</v>
+      </c>
+      <c r="B34">
+        <v>616</v>
+      </c>
+      <c r="C34">
+        <v>281</v>
+      </c>
+      <c r="D34">
+        <v>397</v>
+      </c>
+      <c r="E34">
+        <v>1748</v>
+      </c>
+      <c r="F34">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>193</v>
+      </c>
+      <c r="B35">
+        <v>553</v>
+      </c>
+      <c r="C35">
+        <v>278</v>
+      </c>
+      <c r="D35">
+        <v>394</v>
+      </c>
+      <c r="E35">
+        <v>1747</v>
+      </c>
+      <c r="F35">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>191</v>
+      </c>
+      <c r="B36">
+        <v>513</v>
+      </c>
+      <c r="C36">
+        <v>273</v>
+      </c>
+      <c r="D36">
+        <v>388</v>
+      </c>
+      <c r="E36">
+        <v>1740</v>
+      </c>
+      <c r="F36">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>191</v>
+      </c>
+      <c r="B37">
+        <v>495</v>
+      </c>
+      <c r="C37">
+        <v>231</v>
+      </c>
+      <c r="D37">
+        <v>374</v>
+      </c>
+      <c r="E37">
+        <v>1717</v>
+      </c>
+      <c r="F37">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>190</v>
+      </c>
+      <c r="B38">
+        <v>473</v>
+      </c>
+      <c r="C38">
+        <v>209</v>
+      </c>
+      <c r="D38">
+        <v>374</v>
+      </c>
+      <c r="E38">
+        <v>1707</v>
+      </c>
+      <c r="F38">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>189</v>
+      </c>
+      <c r="B39">
+        <v>459</v>
+      </c>
+      <c r="C39">
+        <v>193</v>
+      </c>
+      <c r="D39">
+        <v>363</v>
+      </c>
+      <c r="E39">
+        <v>1695</v>
+      </c>
+      <c r="F39">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>184</v>
+      </c>
+      <c r="B40">
+        <v>459</v>
+      </c>
+      <c r="C40">
+        <v>180</v>
+      </c>
+      <c r="D40">
+        <v>333</v>
+      </c>
+      <c r="E40">
+        <v>1581</v>
+      </c>
+      <c r="F40">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>183</v>
+      </c>
+      <c r="B41">
+        <v>443</v>
+      </c>
+      <c r="C41">
+        <v>172</v>
+      </c>
+      <c r="D41">
+        <v>319</v>
+      </c>
+      <c r="E41">
+        <v>1540</v>
+      </c>
+      <c r="F41">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>437</v>
+      </c>
+      <c r="C42">
+        <v>166</v>
+      </c>
+      <c r="D42">
+        <v>305</v>
+      </c>
+      <c r="E42">
+        <v>1539</v>
+      </c>
+      <c r="F42">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>177</v>
+      </c>
+      <c r="B43">
+        <v>384</v>
+      </c>
+      <c r="C43">
+        <v>163</v>
+      </c>
+      <c r="D43">
+        <v>302</v>
+      </c>
+      <c r="E43">
+        <v>1521</v>
+      </c>
+      <c r="F43">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>171</v>
+      </c>
+      <c r="B44">
+        <v>381</v>
+      </c>
+      <c r="C44">
+        <v>157</v>
+      </c>
+      <c r="D44">
+        <v>301</v>
+      </c>
+      <c r="E44">
+        <v>1515</v>
+      </c>
+      <c r="F44">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>156</v>
+      </c>
+      <c r="B45">
+        <v>339</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>291</v>
+      </c>
+      <c r="E45">
+        <v>1454</v>
+      </c>
+      <c r="F45">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>323</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>275</v>
+      </c>
+      <c r="E46">
+        <v>1452</v>
+      </c>
+      <c r="F46">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>317</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>259</v>
+      </c>
+      <c r="E47">
+        <v>1405</v>
+      </c>
+      <c r="F47">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>317</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>258</v>
+      </c>
+      <c r="E48">
+        <v>1365</v>
+      </c>
+      <c r="F48">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>317</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>245</v>
+      </c>
+      <c r="E49">
+        <v>1221</v>
+      </c>
+      <c r="F49">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>310</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>236</v>
+      </c>
+      <c r="E50">
+        <v>1195</v>
+      </c>
+      <c r="F50">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>265</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <v>1164</v>
+      </c>
+      <c r="F51">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>259</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>213</v>
+      </c>
+      <c r="E52">
+        <v>1061</v>
+      </c>
+      <c r="F52">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>197</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>210</v>
+      </c>
+      <c r="E53">
+        <v>1054</v>
+      </c>
+      <c r="F53">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>196</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>180</v>
+      </c>
+      <c r="E54">
+        <v>1045</v>
+      </c>
+      <c r="F54">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>193</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>174</v>
+      </c>
+      <c r="E55">
+        <v>970</v>
+      </c>
+      <c r="F55">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>193</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>169</v>
+      </c>
+      <c r="E56">
+        <v>857</v>
+      </c>
+      <c r="F56">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>193</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>163</v>
+      </c>
+      <c r="E57">
+        <v>831</v>
+      </c>
+      <c r="F57">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>161</v>
+      </c>
+      <c r="E58">
+        <v>806</v>
+      </c>
+      <c r="F58">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>153</v>
+      </c>
+      <c r="E59">
+        <v>734</v>
+      </c>
+      <c r="F59">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>143</v>
+      </c>
+      <c r="E60">
+        <v>672</v>
+      </c>
+      <c r="F60">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>142</v>
+      </c>
+      <c r="E61">
+        <v>605</v>
+      </c>
+      <c r="F61">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>140</v>
+      </c>
+      <c r="E62">
+        <v>588</v>
+      </c>
+      <c r="F62">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>135</v>
+      </c>
+      <c r="E63">
+        <v>583</v>
+      </c>
+      <c r="F63">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>129</v>
+      </c>
+      <c r="E64">
+        <v>534</v>
+      </c>
+      <c r="F64">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>118</v>
+      </c>
+      <c r="E65">
+        <v>458</v>
+      </c>
+      <c r="F65">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>115</v>
+      </c>
+      <c r="E66">
+        <v>423</v>
+      </c>
+      <c r="F66">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>113</v>
+      </c>
+      <c r="E67">
+        <v>376</v>
+      </c>
+      <c r="F67">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>105</v>
+      </c>
+      <c r="E68">
+        <v>375</v>
+      </c>
+      <c r="F68">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>104</v>
+      </c>
+      <c r="E69">
+        <v>371</v>
+      </c>
+      <c r="F69">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>99</v>
+      </c>
+      <c r="E70">
+        <v>368</v>
+      </c>
+      <c r="F70">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>85</v>
+      </c>
+      <c r="E71">
+        <v>331</v>
+      </c>
+      <c r="F71">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>270</v>
+      </c>
+      <c r="F72">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>138</v>
+      </c>
+      <c r="F73">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>124</v>
+      </c>
+      <c r="F74">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>